--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -54,9 +54,6 @@
     <t>Nicolas</t>
   </si>
   <si>
-    <t>tela cad. Cidade</t>
-  </si>
-  <si>
     <t>Pedro</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
       </rPr>
       <t>lider</t>
     </r>
+  </si>
+  <si>
+    <t>tela cidade</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,11 +578,11 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -593,11 +593,11 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -608,11 +608,11 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -625,11 +625,11 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -639,10 +639,12 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -657,7 +659,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -670,12 +672,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -683,42 +685,40 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -726,15 +726,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -744,10 +744,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -24,9 +24,6 @@
     <t>Nome:</t>
   </si>
   <si>
-    <t>Serviço:</t>
-  </si>
-  <si>
     <t>Alisson</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>tela cidade</t>
+  </si>
+  <si>
+    <t>Serviço atuais:</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -573,98 +573,98 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
@@ -672,12 +672,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -685,12 +685,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -698,27 +698,27 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -726,15 +726,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -744,10 +744,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -24,6 +24,9 @@
     <t>Nome:</t>
   </si>
   <si>
+    <t>Serviço:</t>
+  </si>
+  <si>
     <t>Alisson</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t>Nicolas</t>
+  </si>
+  <si>
+    <t>tela cad. Cidade</t>
   </si>
   <si>
     <t>Pedro</t>
@@ -137,12 +143,6 @@
       </rPr>
       <t>lider</t>
     </r>
-  </si>
-  <si>
-    <t>tela cidade</t>
-  </si>
-  <si>
-    <t>Serviço atuais:</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -573,98 +573,96 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
@@ -672,12 +670,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -685,40 +683,42 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -726,15 +726,15 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -744,10 +744,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Projeto Systech</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Serviço atuais:</t>
+  </si>
+  <si>
+    <t>tela cad funcionario</t>
+  </si>
+  <si>
+    <t>tela cad grupo</t>
   </si>
 </sst>
 </file>
@@ -191,12 +197,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -226,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +549,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +602,9 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
@@ -611,7 +626,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -628,7 +643,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -643,7 +658,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -656,7 +671,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>29</v>
@@ -666,7 +683,9 @@
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -684,7 +703,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -697,22 +716,19 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -725,7 +741,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -814,7 +830,6 @@
       <c r="G21" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC21" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Projeto Systech</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>tela cad grupo</t>
+  </si>
+  <si>
+    <t>tela cad cliente</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -675,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -723,6 +726,9 @@
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -830,6 +836,7 @@
       <c r="G21" s="1"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC21" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +255,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,7 +553,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -560,7 +561,7 @@
     <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,9 +638,6 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
@@ -691,9 +689,11 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -704,7 +704,9 @@
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
         <v>31</v>
@@ -754,9 +756,6 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Projeto Systech</t>
   </si>
@@ -152,6 +152,36 @@
   </si>
   <si>
     <t>tela cad cliente</t>
+  </si>
+  <si>
+    <t>tela compras / item compras</t>
+  </si>
+  <si>
+    <t>item venda</t>
+  </si>
+  <si>
+    <t>venda</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>produto</t>
+  </si>
+  <si>
+    <t>usuario</t>
+  </si>
+  <si>
+    <t>compra</t>
+  </si>
+  <si>
+    <t>item compra</t>
+  </si>
+  <si>
+    <t>caixa</t>
+  </si>
+  <si>
+    <t>fornecedor</t>
   </si>
 </sst>
 </file>
@@ -241,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -256,6 +286,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -685,7 +716,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
@@ -716,10 +747,14 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
         <v>32</v>
@@ -761,7 +796,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
@@ -774,7 +811,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
@@ -787,7 +826,9 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1"/>
@@ -796,7 +837,9 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1"/>
@@ -805,7 +848,9 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1"/>
@@ -814,7 +859,9 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="G19" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1"/>
@@ -823,7 +870,9 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1"/>
@@ -832,7 +881,146 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
     </row>
   </sheetData>
   <sheetProtection password="CC21" sheet="1" objects="1" scenarios="1"/>

--- a/Controle de servicços.xlsx
+++ b/Controle de servicços.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>Projeto Systech</t>
   </si>
@@ -27,13 +27,7 @@
     <t>Alisson</t>
   </si>
   <si>
-    <t>Diego</t>
-  </si>
-  <si>
     <t>Érica</t>
-  </si>
-  <si>
-    <t>Gustavo Benetti</t>
   </si>
   <si>
     <t>Gustavo Possatti</t>
@@ -145,9 +139,6 @@
     <t>Serviço atuais:</t>
   </si>
   <si>
-    <t>tela cad funcionario</t>
-  </si>
-  <si>
     <t>tela cad grupo</t>
   </si>
   <si>
@@ -182,6 +173,39 @@
   </si>
   <si>
     <t>fornecedor</t>
+  </si>
+  <si>
+    <t>produto/marca</t>
+  </si>
+  <si>
+    <t>venda/item venda</t>
+  </si>
+  <si>
+    <t>tela cad funcionario/usuario</t>
+  </si>
+  <si>
+    <t>contas a receber</t>
+  </si>
+  <si>
+    <t>giovani</t>
+  </si>
+  <si>
+    <t>contas a pagar</t>
+  </si>
+  <si>
+    <t>cheque</t>
+  </si>
+  <si>
+    <t>contasapagar</t>
+  </si>
+  <si>
+    <t>contasareceber</t>
+  </si>
+  <si>
+    <t>formadepagamento</t>
+  </si>
+  <si>
+    <t>gerarrecibo</t>
   </si>
 </sst>
 </file>
@@ -230,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,8 +267,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -267,11 +297,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,7 +327,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -621,16 +663,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -638,196 +680,206 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
+      <c r="G8" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
+      <c r="G9" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="6" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
+      <c r="G14" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>43</v>
+      <c r="G15" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>44</v>
+      <c r="G16" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -838,7 +890,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -848,8 +900,8 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
+      <c r="G18" s="9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -860,7 +912,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="6" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -871,7 +923,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -881,8 +933,8 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>49</v>
+      <c r="G21" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,8 +944,8 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="8" t="s">
-        <v>50</v>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -903,7 +955,9 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1"/>
@@ -912,7 +966,9 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1"/>
@@ -921,7 +977,9 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1"/>
@@ -930,7 +988,9 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1"/>
@@ -939,7 +999,9 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1"/>
@@ -984,7 +1046,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1"/>
@@ -993,7 +1055,7 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1"/>
@@ -1002,7 +1064,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1"/>
@@ -1011,7 +1073,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1"/>
@@ -1021,6 +1083,45 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="1"/>
     </row>
   </sheetData>
   <sheetProtection password="CC21" sheet="1" objects="1" scenarios="1"/>
